--- a/results/FrequencyTables/27404981_gRNA-TAR3.xlsx
+++ b/results/FrequencyTables/27404981_gRNA-TAR3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0101010101010101</v>
+        <v>0.00977443609022556</v>
       </c>
       <c r="C2">
-        <v>0.0101010101010101</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0120300751879699</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0195488721804511</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00225563909774436</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00601503759398496</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="Q2">
-        <v>0.818181818181818</v>
+        <v>0.857894736842105</v>
       </c>
       <c r="R2">
-        <v>0.707070707070707</v>
+        <v>0.639097744360902</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.97979797979798</v>
+        <v>0.946616541353383</v>
       </c>
       <c r="V2">
-        <v>0.0303030303030303</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="W2">
-        <v>0.0101010101010101</v>
+        <v>0.0330827067669173</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0225563909774436</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00300751879699248</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00300751879699248</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.97979797979798</v>
+        <v>0.954135338345865</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.97218045112782</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0172932330827068</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.978195488721805</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0172932330827068</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="O3">
-        <v>0.98989898989899</v>
+        <v>0.970676691729323</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00300751879699248</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00225563909774436</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="T3">
-        <v>0.0202020202020202</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00451127819548872</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00225563909774436</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.98989898989899</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C4">
-        <v>0.98989898989899</v>
+        <v>0.969924812030075</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.983458646616541</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.990977443609023</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0218045112781955</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0037593984962406</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.969924812030075</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.988721804511278</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.181818181818182</v>
+        <v>0.13984962406015</v>
       </c>
       <c r="R4">
-        <v>0.292929292929293</v>
+        <v>0.354135338345865</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="U4">
-        <v>0.0101010101010101</v>
+        <v>0.0503759398496241</v>
       </c>
       <c r="V4">
-        <v>0.96969696969697</v>
+        <v>0.979699248120301</v>
       </c>
       <c r="W4">
-        <v>0.98989898989899</v>
+        <v>0.96390977443609</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.969924812030075</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,70 +687,70 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0180451127819549</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0165413533834586</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0075187969924812</v>
       </c>
       <c r="G5">
-        <v>0.0202020202020202</v>
+        <v>0.0345864661654135</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.973684210526316</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.979699248120301</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.018796992481203</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.978195488721805</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0157894736842105</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00902255639097744</v>
       </c>
       <c r="O5">
-        <v>0.0101010101010101</v>
+        <v>0.0150375939849624</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.996240601503759</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00225563909774436</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00451127819548872</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00902255639097744</v>
       </c>
       <c r="T5">
-        <v>0.97979797979798</v>
+        <v>0.994736842105263</v>
       </c>
       <c r="U5">
-        <v>0.0101010101010101</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00075187969924812</v>
       </c>
       <c r="X5">
         <v>0</v>
